--- a/INT_data.xlsx
+++ b/INT_data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/EiraLi-Katalon_API/INT_env/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/Katalon_Script/SuperWild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F187A1-26FC-7143-888B-E4448A6FAEE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D2346-2703-9F42-BA95-852C12F2F193}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33020" yWindow="-2300" windowWidth="28060" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
+    <workbookView xWindow="28620" yWindow="-2620" windowWidth="29440" windowHeight="16940" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="ref" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
   <si>
     <t>partner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,14 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-07-17T00:00:00Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-07-17T23:59:00Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bbin_int_0001</t>
   </si>
   <si>
@@ -286,6 +278,18 @@
   </si>
   <si>
     <t>nurgs.3655oule.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>krug.3655oule.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-22T00:00:00Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-22T23:59:00Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670E70B4-D18C-8A41-9D76-6A8C3B916D59}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -868,7 +872,7 @@
         <v>53</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
@@ -882,28 +886,28 @@
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>43</v>
@@ -912,7 +916,7 @@
         <v>54</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="20">
@@ -926,28 +930,28 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>43</v>
@@ -956,7 +960,7 @@
         <v>54</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="20">
@@ -970,28 +974,28 @@
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>43</v>
@@ -1000,7 +1004,7 @@
         <v>54</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1014,28 +1018,28 @@
         <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>43</v>
@@ -1044,7 +1048,7 @@
         <v>54</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1058,28 +1062,28 @@
         <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>43</v>
@@ -1088,7 +1092,7 @@
         <v>54</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1102,28 +1106,28 @@
         <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>43</v>
@@ -1132,7 +1136,7 @@
         <v>54</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1146,28 +1150,28 @@
         <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>43</v>
@@ -1176,7 +1180,7 @@
         <v>54</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1190,28 +1194,28 @@
         <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>43</v>
@@ -1220,7 +1224,7 @@
         <v>54</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1234,28 +1238,28 @@
         <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>43</v>
@@ -1264,7 +1268,7 @@
         <v>54</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="20"/>

--- a/INT_data.xlsx
+++ b/INT_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/Katalon_Script/SuperWild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D2346-2703-9F42-BA95-852C12F2F193}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42119EC8-04C7-574B-BF17-F0696B0D81B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28620" yWindow="-2620" windowWidth="29440" windowHeight="16940" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
+    <workbookView xWindow="4660" yWindow="2140" windowWidth="23560" windowHeight="13100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
   <si>
     <t>partner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BBIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>New BBIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,9 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bbin_int_0001</t>
-  </si>
-  <si>
     <t>newbbin_int_0001</t>
   </si>
   <si>
@@ -257,26 +250,13 @@
     <t>simbo_int_0001</t>
   </si>
   <si>
-    <t>bos_int_0001</t>
-  </si>
-  <si>
     <t>og_int_0001</t>
   </si>
   <si>
-    <t>M4-0012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW_M4_V1_RECORDER</t>
-  </si>
-  <si>
     <t>krug-gw-colo.3655oule.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M4_recorder</t>
-  </si>
-  <si>
     <t>nurgs.3655oule.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,11 +265,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-08-22T00:00:00Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-08-22T23:59:00Z</t>
+    <t>bbin_int_1_free</t>
+  </si>
+  <si>
+    <t>bbin_int_2_reel</t>
+  </si>
+  <si>
+    <t>bbin_int_3_ExtraFG</t>
+  </si>
+  <si>
+    <t>bbin_int_4_Multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbin_int_5_Expanding</t>
+  </si>
+  <si>
+    <t>bbin_int_6_Normal</t>
+  </si>
+  <si>
+    <t>bbin_int_7_summary</t>
+  </si>
+  <si>
+    <t>M4-0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-24T23:59:00Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-24T00:00:00Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOS_int_003</t>
+  </si>
+  <si>
+    <t>BBIN_Staging</t>
+  </si>
+  <si>
+    <t>gameId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,6 +395,18 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -446,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +518,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670E70B4-D18C-8A41-9D76-6A8C3B916D59}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -842,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -857,418 +894,418 @@
         <v>6</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>56</v>
+      <c r="D2" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="K8" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="J9" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="L10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="20"/>
@@ -1277,16 +1314,44 @@
     <row r="14" spans="1:14" s="2" customFormat="1" ht="20"/>
     <row r="15" spans="1:14" s="2" customFormat="1" ht="20"/>
     <row r="16" spans="1:14" s="2" customFormat="1" ht="20"/>
-    <row r="17" s="2" customFormat="1" ht="20"/>
-    <row r="18" s="2" customFormat="1" ht="20"/>
-    <row r="19" s="2" customFormat="1" ht="20"/>
-    <row r="20" s="2" customFormat="1" ht="20"/>
-    <row r="21" s="2" customFormat="1" ht="20"/>
-    <row r="22" s="2" customFormat="1" ht="20"/>
-    <row r="23" s="2" customFormat="1" ht="20"/>
-    <row r="24" s="3" customFormat="1" ht="25"/>
-    <row r="25" s="3" customFormat="1" ht="25"/>
-    <row r="26" s="3" customFormat="1" ht="25"/>
+    <row r="17" spans="4:4" s="2" customFormat="1" ht="20">
+      <c r="D17" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" s="2" customFormat="1" ht="20">
+      <c r="D18" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" s="2" customFormat="1" ht="20">
+      <c r="D19" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" s="2" customFormat="1" ht="20">
+      <c r="D20" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" s="2" customFormat="1" ht="20">
+      <c r="D21" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" s="2" customFormat="1" ht="20">
+      <c r="D22" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" s="2" customFormat="1" ht="20">
+      <c r="D23" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" s="3" customFormat="1" ht="25"/>
+    <row r="25" spans="4:4" s="3" customFormat="1" ht="25"/>
+    <row r="26" spans="4:4" s="3" customFormat="1" ht="25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1311,54 +1376,54 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/INT_data.xlsx
+++ b/INT_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/Katalon_Script/SuperWild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42119EC8-04C7-574B-BF17-F0696B0D81B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA51557B-02BF-564F-8DDE-E443614566EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="2140" windowWidth="23560" windowHeight="13100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
+    <workbookView xWindow="30040" yWindow="-1140" windowWidth="31260" windowHeight="16380" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t>partner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,25 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bbin_int_1_free</t>
-  </si>
-  <si>
-    <t>bbin_int_2_reel</t>
-  </si>
-  <si>
-    <t>bbin_int_3_ExtraFG</t>
-  </si>
-  <si>
-    <t>bbin_int_4_Multiplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbin_int_5_Expanding</t>
-  </si>
-  <si>
-    <t>bbin_int_6_Normal</t>
-  </si>
-  <si>
     <t>bbin_int_7_summary</t>
   </si>
   <si>
@@ -291,14 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-08-24T23:59:00Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-08-24T00:00:00Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOS_int_003</t>
   </si>
   <si>
@@ -306,6 +279,14 @@
   </si>
   <si>
     <t>gameId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-27T00:00:00Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-27T23:59:00Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +827,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -857,8 +838,8 @@
     <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="20" style="1" customWidth="1"/>
@@ -909,12 +890,12 @@
         <v>52</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
@@ -923,19 +904,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>63</v>
@@ -953,7 +934,7 @@
         <v>53</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="20">
@@ -967,19 +948,19 @@
         <v>29</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>63</v>
@@ -997,7 +978,7 @@
         <v>53</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1014,16 +995,16 @@
         <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>63</v>
@@ -1041,7 +1022,7 @@
         <v>53</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1058,16 +1039,16 @@
         <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>63</v>
@@ -1085,7 +1066,7 @@
         <v>53</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1102,16 +1083,16 @@
         <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>63</v>
@@ -1129,7 +1110,7 @@
         <v>53</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1146,16 +1127,16 @@
         <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>63</v>
@@ -1173,7 +1154,7 @@
         <v>53</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1190,16 +1171,16 @@
         <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>63</v>
@@ -1217,7 +1198,7 @@
         <v>53</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1234,16 +1215,16 @@
         <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>63</v>
@@ -1261,7 +1242,7 @@
         <v>53</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1278,16 +1259,16 @@
         <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>63</v>
@@ -1305,7 +1286,7 @@
         <v>53</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="20"/>
@@ -1315,39 +1296,25 @@
     <row r="15" spans="1:14" s="2" customFormat="1" ht="20"/>
     <row r="16" spans="1:14" s="2" customFormat="1" ht="20"/>
     <row r="17" spans="4:4" s="2" customFormat="1" ht="20">
-      <c r="D17" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="4:4" s="2" customFormat="1" ht="20">
-      <c r="D18" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="4:4" s="2" customFormat="1" ht="20">
-      <c r="D19" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="4:4" s="2" customFormat="1" ht="20">
-      <c r="D20" s="15" t="s">
-        <v>68</v>
-      </c>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="4:4" s="2" customFormat="1" ht="20">
-      <c r="D21" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="4:4" s="2" customFormat="1" ht="20">
-      <c r="D22" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="4:4" s="2" customFormat="1" ht="20">
-      <c r="D23" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="4:4" s="3" customFormat="1" ht="25"/>
     <row r="25" spans="4:4" s="3" customFormat="1" ht="25"/>
